--- a/chatbot/adminsite/report_template.xlsx
+++ b/chatbot/adminsite/report_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oxina\OneDrive\Рабочий стол\работа\chat-bot\chatbot\adminsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF0B09F-61C9-42BA-AAEB-C6CF0FBC37E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44ADF231-8AB0-446A-BDA0-DD9F081991E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
     <t>Куратор: {{ curator_name }}</t>
   </si>
   <si>
-    <t>Количество подопечных сотрудников: {{ count }}</t>
+    <t>Количество сотрудников в отчете: {{ count }}</t>
   </si>
 </sst>
 </file>
@@ -362,7 +362,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
